--- a/AutomatizacionAltoroMutual_V2/TestData/dataTransferFondos.xlsx
+++ b/AutomatizacionAltoroMutual_V2/TestData/dataTransferFondos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="23">
   <si>
     <t>Estatus de la prueba</t>
   </si>

--- a/AutomatizacionAltoroMutual_V2/TestData/dataTransferFondos.xlsx
+++ b/AutomatizacionAltoroMutual_V2/TestData/dataTransferFondos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="23">
   <si>
     <t>Estatus de la prueba</t>
   </si>
